--- a/app/resource/xlsx/fee_proposal_template_5.xlsx
+++ b/app/resource/xlsx/fee_proposal_template_5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engineer3\xero-asana-integration\app\resource\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\00-Template-Do Not Modify\00-Bridge template\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8EC814-9C1E-41AA-858B-C6E4A0FE94D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F265C95F-9B08-4B29-80E4-DE410D7FFD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
   <sheets>
     <sheet name="Fee Proposal" sheetId="11" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="144">
   <si>
     <t>Premium Consulting Engineers</t>
   </si>
@@ -498,6 +498,9 @@
   </si>
   <si>
     <t>Receive base building drawings detailing information of service provision</t>
+  </si>
+  <si>
+    <t>Email:</t>
   </si>
 </sst>
 </file>
@@ -703,7 +706,7 @@
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -769,19 +772,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -792,11 +788,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -812,41 +804,56 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -860,23 +867,23 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1322,13 +1329,13 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X403"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A308" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B325" sqref="B325"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A307" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F320" sqref="F320:G324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="40" customWidth="1"/>
     <col min="2" max="8" width="11.28515625" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
@@ -1339,7 +1346,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="39" t="s">
         <v>140</v>
       </c>
       <c r="G1" s="12" t="s">
@@ -1354,8 +1361,8 @@
       <c r="G2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
       <c r="K2" s="49"/>
       <c r="L2" s="49"/>
       <c r="M2" s="15"/>
@@ -1382,7 +1389,7 @@
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="42"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="19"/>
       <c r="H4" s="1"/>
       <c r="L4" s="14"/>
@@ -1392,7 +1399,7 @@
       <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="41"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -1407,15 +1414,15 @@
       <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
       <c r="K6" s="18"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1440,26 +1447,26 @@
       <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -1467,93 +1474,93 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="63"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="63"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="63"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
     </row>
     <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="63"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
     </row>
     <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
@@ -1572,14 +1579,14 @@
       <c r="C16" s="4"/>
       <c r="E16" s="8"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="30"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="2" t="s">
         <v>105</v>
       </c>
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="49" t="s">
@@ -1597,7 +1604,7 @@
       <c r="M17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="49" t="s">
@@ -1615,7 +1622,7 @@
       <c r="P18" s="23"/>
     </row>
     <row r="19" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="49" t="s">
@@ -1648,7 +1655,7 @@
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="30"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="2" t="s">
         <v>105</v>
       </c>
@@ -1660,7 +1667,7 @@
       <c r="O21" s="17"/>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="49" t="s">
@@ -1680,7 +1687,7 @@
       <c r="O22" s="17"/>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="49" t="s">
@@ -1696,7 +1703,7 @@
       <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="49" t="s">
@@ -1712,7 +1719,7 @@
       <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="38"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
@@ -1723,14 +1730,14 @@
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="30"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="2" t="s">
         <v>105</v>
       </c>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="49" t="s">
@@ -1745,7 +1752,7 @@
       <c r="I27" s="49"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="49" t="s">
@@ -1760,21 +1767,21 @@
       <c r="I28" s="49"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
@@ -1800,7 +1807,7 @@
       <c r="I31" s="17"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B32" s="49" t="s">
@@ -1815,7 +1822,7 @@
       <c r="I32" s="49"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="49" t="s">
@@ -1830,22 +1837,22 @@
       <c r="I33" s="49"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -1862,7 +1869,7 @@
       <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="40" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1878,7 +1885,7 @@
       <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="42" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="13"/>
@@ -1891,37 +1898,37 @@
       <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="40" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="40" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="33"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="30"/>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B45" t="s">
@@ -1931,7 +1938,7 @@
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B46" t="s">
@@ -1944,7 +1951,7 @@
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B47" t="s">
@@ -1959,7 +1966,7 @@
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B48" t="s">
@@ -1975,7 +1982,7 @@
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B49" t="s">
@@ -1984,22 +1991,22 @@
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="38"/>
     </row>
     <row r="51" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="33"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="30"/>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
@@ -2007,7 +2014,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="I52" s="43"/>
+      <c r="I52" s="38"/>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
@@ -2129,7 +2136,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="43"/>
+      <c r="I67" s="38"/>
     </row>
     <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
@@ -2154,22 +2161,22 @@
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21"/>
       <c r="C71" s="3"/>
-      <c r="I71" s="43"/>
+      <c r="I71" s="38"/>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21"/>
       <c r="C72" s="3"/>
-      <c r="I72" s="43"/>
+      <c r="I72" s="38"/>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="21"/>
       <c r="C73" s="3"/>
-      <c r="I73" s="43"/>
+      <c r="I73" s="38"/>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21"/>
       <c r="C74" s="3"/>
-      <c r="I74" s="43"/>
+      <c r="I74" s="38"/>
     </row>
     <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21"/>
@@ -4099,10 +4106,10 @@
       <c r="H267" s="5"/>
     </row>
     <row r="268" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="33" t="s">
+      <c r="A268" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B268" s="34" t="s">
+      <c r="B268" s="31" t="s">
         <v>114</v>
       </c>
       <c r="D268" s="16"/>
@@ -4110,13 +4117,13 @@
       <c r="F268" s="16"/>
       <c r="G268" s="16"/>
       <c r="H268" s="16"/>
-      <c r="I268" s="33"/>
+      <c r="I268" s="30"/>
     </row>
     <row r="269" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="44" t="s">
+      <c r="A269" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B269" s="34" t="s">
+      <c r="B269" s="31" t="s">
         <v>124</v>
       </c>
       <c r="D269" s="16"/>
@@ -4124,69 +4131,69 @@
       <c r="F269" s="16"/>
       <c r="G269" s="16"/>
       <c r="H269" s="16"/>
-      <c r="I269" s="33"/>
+      <c r="I269" s="30"/>
     </row>
     <row r="270" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="33"/>
-      <c r="B270" s="48" t="s">
+      <c r="A270" s="30"/>
+      <c r="B270" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="C270" s="48"/>
-      <c r="D270" s="48"/>
-      <c r="E270" s="48"/>
-      <c r="F270" s="48"/>
-      <c r="G270" s="48"/>
-      <c r="H270" s="48"/>
-      <c r="I270" s="48"/>
+      <c r="C270" s="50"/>
+      <c r="D270" s="50"/>
+      <c r="E270" s="50"/>
+      <c r="F270" s="50"/>
+      <c r="G270" s="50"/>
+      <c r="H270" s="50"/>
+      <c r="I270" s="50"/>
     </row>
     <row r="271" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="33"/>
-      <c r="B271" s="48"/>
-      <c r="C271" s="48"/>
-      <c r="D271" s="48"/>
-      <c r="E271" s="48"/>
-      <c r="F271" s="48"/>
-      <c r="G271" s="48"/>
-      <c r="H271" s="48"/>
-      <c r="I271" s="48"/>
+      <c r="A271" s="30"/>
+      <c r="B271" s="50"/>
+      <c r="C271" s="50"/>
+      <c r="D271" s="50"/>
+      <c r="E271" s="50"/>
+      <c r="F271" s="50"/>
+      <c r="G271" s="50"/>
+      <c r="H271" s="50"/>
+      <c r="I271" s="50"/>
     </row>
     <row r="272" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="33"/>
-      <c r="B272" s="48"/>
-      <c r="C272" s="48"/>
-      <c r="D272" s="48"/>
-      <c r="E272" s="48"/>
-      <c r="F272" s="48"/>
-      <c r="G272" s="48"/>
-      <c r="H272" s="48"/>
-      <c r="I272" s="48"/>
+      <c r="A272" s="30"/>
+      <c r="B272" s="50"/>
+      <c r="C272" s="50"/>
+      <c r="D272" s="50"/>
+      <c r="E272" s="50"/>
+      <c r="F272" s="50"/>
+      <c r="G272" s="50"/>
+      <c r="H272" s="50"/>
+      <c r="I272" s="50"/>
     </row>
     <row r="273" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="33"/>
-      <c r="B273" s="48"/>
-      <c r="C273" s="48"/>
-      <c r="D273" s="48"/>
-      <c r="E273" s="48"/>
-      <c r="F273" s="48"/>
-      <c r="G273" s="48"/>
-      <c r="H273" s="48"/>
-      <c r="I273" s="48"/>
+      <c r="A273" s="30"/>
+      <c r="B273" s="50"/>
+      <c r="C273" s="50"/>
+      <c r="D273" s="50"/>
+      <c r="E273" s="50"/>
+      <c r="F273" s="50"/>
+      <c r="G273" s="50"/>
+      <c r="H273" s="50"/>
+      <c r="I273" s="50"/>
     </row>
     <row r="274" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="33"/>
-      <c r="B274" s="34"/>
+      <c r="A274" s="30"/>
+      <c r="B274" s="31"/>
       <c r="D274" s="16"/>
       <c r="E274" s="16"/>
       <c r="F274" s="16"/>
       <c r="G274" s="16"/>
       <c r="H274" s="16"/>
-      <c r="I274" s="33"/>
+      <c r="I274" s="30"/>
     </row>
     <row r="275" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="44">
+      <c r="A275" s="30">
         <v>3.2</v>
       </c>
-      <c r="B275" s="34" t="s">
+      <c r="B275" s="31" t="s">
         <v>126</v>
       </c>
       <c r="D275" s="16"/>
@@ -4194,34 +4201,34 @@
       <c r="F275" s="16"/>
       <c r="G275" s="16"/>
       <c r="H275" s="16"/>
-      <c r="I275" s="33"/>
+      <c r="I275" s="30"/>
     </row>
     <row r="276" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="33"/>
-      <c r="B276" s="48" t="s">
+      <c r="A276" s="30"/>
+      <c r="B276" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="C276" s="48"/>
-      <c r="D276" s="48"/>
-      <c r="E276" s="48"/>
-      <c r="F276" s="48"/>
-      <c r="G276" s="48"/>
-      <c r="H276" s="48"/>
-      <c r="I276" s="48"/>
+      <c r="C276" s="50"/>
+      <c r="D276" s="50"/>
+      <c r="E276" s="50"/>
+      <c r="F276" s="50"/>
+      <c r="G276" s="50"/>
+      <c r="H276" s="50"/>
+      <c r="I276" s="50"/>
     </row>
     <row r="277" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="33"/>
-      <c r="B277" s="48"/>
-      <c r="C277" s="48"/>
-      <c r="D277" s="48"/>
-      <c r="E277" s="48"/>
-      <c r="F277" s="48"/>
-      <c r="G277" s="48"/>
-      <c r="H277" s="48"/>
-      <c r="I277" s="48"/>
+      <c r="A277" s="30"/>
+      <c r="B277" s="50"/>
+      <c r="C277" s="50"/>
+      <c r="D277" s="50"/>
+      <c r="E277" s="50"/>
+      <c r="F277" s="50"/>
+      <c r="G277" s="50"/>
+      <c r="H277" s="50"/>
+      <c r="I277" s="50"/>
     </row>
     <row r="278" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
+      <c r="A278" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B278" s="7" t="s">
@@ -4232,10 +4239,10 @@
       <c r="F278" s="16"/>
       <c r="G278" s="16"/>
       <c r="H278" s="16"/>
-      <c r="I278" s="33"/>
+      <c r="I278" s="30"/>
     </row>
     <row r="279" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
+      <c r="A279" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B279" s="7" t="s">
@@ -4246,10 +4253,10 @@
       <c r="F279" s="16"/>
       <c r="G279" s="16"/>
       <c r="H279" s="16"/>
-      <c r="I279" s="33"/>
+      <c r="I279" s="30"/>
     </row>
     <row r="280" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
+      <c r="A280" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B280" s="7" t="s">
@@ -4260,43 +4267,43 @@
       <c r="F280" s="16"/>
       <c r="G280" s="16"/>
       <c r="H280" s="16"/>
-      <c r="I280" s="33"/>
+      <c r="I280" s="30"/>
     </row>
     <row r="281" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="1"/>
+      <c r="A281" s="38"/>
       <c r="B281" s="7"/>
       <c r="D281" s="16"/>
       <c r="E281" s="16"/>
       <c r="F281" s="16"/>
       <c r="G281" s="16"/>
       <c r="H281" s="16"/>
-      <c r="I281" s="33"/>
+      <c r="I281" s="30"/>
     </row>
     <row r="282" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="1"/>
+      <c r="A282" s="38"/>
       <c r="B282" s="7"/>
       <c r="D282" s="16"/>
       <c r="E282" s="16"/>
       <c r="F282" s="16"/>
       <c r="G282" s="16"/>
       <c r="H282" s="16"/>
-      <c r="I282" s="33"/>
+      <c r="I282" s="30"/>
     </row>
     <row r="283" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="33"/>
-      <c r="B283" s="34"/>
+      <c r="A283" s="30"/>
+      <c r="B283" s="31"/>
       <c r="D283" s="16"/>
       <c r="E283" s="16"/>
       <c r="F283" s="16"/>
       <c r="G283" s="16"/>
       <c r="H283" s="16"/>
-      <c r="I283" s="33"/>
+      <c r="I283" s="30"/>
     </row>
     <row r="284" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="44">
+      <c r="A284" s="30">
         <v>3.3</v>
       </c>
-      <c r="B284" s="34" t="s">
+      <c r="B284" s="31" t="s">
         <v>127</v>
       </c>
       <c r="D284" s="16"/>
@@ -4304,24 +4311,24 @@
       <c r="F284" s="16"/>
       <c r="G284" s="16"/>
       <c r="H284" s="16"/>
-      <c r="I284" s="33"/>
+      <c r="I284" s="30"/>
     </row>
     <row r="285" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="44"/>
-      <c r="B285" s="52" t="s">
+      <c r="A285" s="30"/>
+      <c r="B285" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="C285" s="52"/>
-      <c r="D285" s="52"/>
-      <c r="E285" s="52"/>
-      <c r="F285" s="52"/>
-      <c r="G285" s="52"/>
-      <c r="H285" s="52"/>
-      <c r="I285" s="52"/>
-      <c r="Q285" s="34"/>
+      <c r="C285" s="48"/>
+      <c r="D285" s="48"/>
+      <c r="E285" s="48"/>
+      <c r="F285" s="48"/>
+      <c r="G285" s="48"/>
+      <c r="H285" s="48"/>
+      <c r="I285" s="48"/>
+      <c r="Q285" s="31"/>
     </row>
     <row r="286" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="str">
+      <c r="A286" s="38" t="str">
         <f t="shared" ref="A286:A295" si="0">IF(B286&lt;&gt;"","•","")</f>
         <v/>
       </c>
@@ -4336,7 +4343,7 @@
       <c r="Q286" s="10"/>
     </row>
     <row r="287" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="str">
+      <c r="A287" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4351,7 +4358,7 @@
       <c r="Q287" s="10"/>
     </row>
     <row r="288" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="str">
+      <c r="A288" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4367,7 +4374,7 @@
       <c r="R288" s="7"/>
     </row>
     <row r="289" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="str">
+      <c r="A289" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4382,7 +4389,7 @@
       <c r="Q289" s="10"/>
     </row>
     <row r="290" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="str">
+      <c r="A290" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4397,7 +4404,7 @@
       <c r="Q290" s="10"/>
     </row>
     <row r="291" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="str">
+      <c r="A291" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4413,7 +4420,7 @@
       <c r="R291" s="7"/>
     </row>
     <row r="292" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="str">
+      <c r="A292" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4428,7 +4435,7 @@
       <c r="Q292" s="10"/>
     </row>
     <row r="293" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="str">
+      <c r="A293" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4439,7 +4446,7 @@
       <c r="Q293" s="10"/>
     </row>
     <row r="294" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="str">
+      <c r="A294" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4454,7 +4461,7 @@
       <c r="Q294" s="10"/>
     </row>
     <row r="295" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="str">
+      <c r="A295" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4469,7 +4476,7 @@
       <c r="Q295" s="10"/>
     </row>
     <row r="296" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="45"/>
+      <c r="A296" s="43"/>
       <c r="M296" s="5" t="str">
         <f t="array" ref="M296">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
         <v/>
@@ -4479,10 +4486,10 @@
       <c r="P296" s="9"/>
     </row>
     <row r="297" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="44">
+      <c r="A297" s="30">
         <v>3.4</v>
       </c>
-      <c r="B297" s="34" t="s">
+      <c r="B297" s="31" t="s">
         <v>116</v>
       </c>
       <c r="M297" s="5" t="str">
@@ -4495,7 +4502,7 @@
       <c r="Q297" s="5"/>
     </row>
     <row r="298" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="44"/>
+      <c r="A298" s="30"/>
       <c r="B298" s="49" t="s">
         <v>8</v>
       </c>
@@ -4513,11 +4520,11 @@
       <c r="Q298" s="5"/>
     </row>
     <row r="299" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="44"/>
+      <c r="A299" s="30"/>
       <c r="B299" t="s">
         <v>9</v>
       </c>
-      <c r="E299" s="37" t="s">
+      <c r="E299" s="33" t="s">
         <v>117</v>
       </c>
       <c r="M299" s="12"/>
@@ -4527,7 +4534,7 @@
       <c r="Q299" s="5"/>
     </row>
     <row r="300" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="1"/>
+      <c r="A300" s="38"/>
       <c r="B300" t="s">
         <v>12</v>
       </c>
@@ -4539,7 +4546,7 @@
       <c r="Q300" s="5"/>
     </row>
     <row r="301" spans="1:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="1"/>
+      <c r="A301" s="38"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
       <c r="D301" s="16"/>
@@ -4555,10 +4562,10 @@
       <c r="Q301" s="5"/>
     </row>
     <row r="302" spans="1:18" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="33" t="s">
+      <c r="A302" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B302" s="34" t="s">
+      <c r="B302" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D302" s="16"/>
@@ -4566,58 +4573,58 @@
       <c r="F302" s="16"/>
       <c r="G302" s="16"/>
       <c r="H302" s="16"/>
-      <c r="I302" s="33"/>
+      <c r="I302" s="30"/>
       <c r="M302"/>
       <c r="N302"/>
       <c r="O302" s="11"/>
       <c r="P302"/>
     </row>
     <row r="303" spans="1:18" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="45"/>
-      <c r="B303" s="52" t="s">
+      <c r="A303" s="43"/>
+      <c r="B303" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="C303" s="52"/>
-      <c r="D303" s="52"/>
-      <c r="E303" s="52"/>
-      <c r="F303" s="52"/>
-      <c r="G303" s="52"/>
-      <c r="H303" s="52"/>
-      <c r="I303" s="52"/>
+      <c r="C303" s="48"/>
+      <c r="D303" s="48"/>
+      <c r="E303" s="48"/>
+      <c r="F303" s="48"/>
+      <c r="G303" s="48"/>
+      <c r="H303" s="48"/>
+      <c r="I303" s="48"/>
       <c r="M303"/>
       <c r="N303"/>
     </row>
     <row r="304" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="1"/>
-      <c r="B304" s="28" t="s">
+      <c r="A304" s="38"/>
+      <c r="B304" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C304" s="28"/>
-      <c r="D304" s="50" t="s">
+      <c r="C304" s="27"/>
+      <c r="D304" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="E304" s="50"/>
-      <c r="F304" s="50" t="s">
+      <c r="E304" s="62"/>
+      <c r="F304" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="G304" s="50"/>
+      <c r="G304" s="62"/>
       <c r="H304" s="9"/>
       <c r="Q304" s="5"/>
     </row>
     <row r="305" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="1"/>
-      <c r="B305" s="28" t="s">
+      <c r="A305" s="38"/>
+      <c r="B305" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C305" s="28"/>
-      <c r="D305" s="50" t="s">
+      <c r="C305" s="27"/>
+      <c r="D305" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="E305" s="50"/>
-      <c r="F305" s="51">
+      <c r="E305" s="62"/>
+      <c r="F305" s="63">
         <v>10000000</v>
       </c>
-      <c r="G305" s="51"/>
+      <c r="G305" s="63"/>
       <c r="H305" s="23"/>
       <c r="I305" s="7"/>
       <c r="M305" s="5"/>
@@ -4627,24 +4634,24 @@
       <c r="Q305" s="5"/>
     </row>
     <row r="306" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="1"/>
-      <c r="B306" s="28" t="s">
+      <c r="A306" s="38"/>
+      <c r="B306" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C306" s="28"/>
-      <c r="D306" s="50" t="s">
+      <c r="C306" s="27"/>
+      <c r="D306" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E306" s="50"/>
-      <c r="F306" s="51">
+      <c r="E306" s="62"/>
+      <c r="F306" s="63">
         <v>20000000</v>
       </c>
-      <c r="G306" s="51"/>
+      <c r="G306" s="63"/>
       <c r="H306" s="23"/>
       <c r="M306" s="9"/>
     </row>
     <row r="307" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="1"/>
+      <c r="A307" s="38"/>
       <c r="B307" s="12" t="s">
         <v>118</v>
       </c>
@@ -4657,7 +4664,7 @@
       <c r="M307" s="23"/>
     </row>
     <row r="308" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="1"/>
+      <c r="A308" s="38"/>
       <c r="B308" s="12"/>
       <c r="C308" s="12"/>
       <c r="D308" s="12"/>
@@ -4669,66 +4676,66 @@
       <c r="M308" s="23"/>
     </row>
     <row r="309" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="33" t="s">
+      <c r="A309" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="B309" s="34" t="s">
+      <c r="B309" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C309" s="35"/>
-      <c r="I309" s="33"/>
+      <c r="C309" s="32"/>
+      <c r="I309" s="30"/>
       <c r="M309" s="22"/>
     </row>
     <row r="310" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="1"/>
-      <c r="B310" s="48" t="s">
+      <c r="A310" s="38"/>
+      <c r="B310" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="C310" s="48"/>
-      <c r="D310" s="48"/>
-      <c r="E310" s="48"/>
-      <c r="F310" s="48"/>
-      <c r="G310" s="48"/>
-      <c r="H310" s="48"/>
-      <c r="I310" s="48"/>
+      <c r="C310" s="50"/>
+      <c r="D310" s="50"/>
+      <c r="E310" s="50"/>
+      <c r="F310" s="50"/>
+      <c r="G310" s="50"/>
+      <c r="H310" s="50"/>
+      <c r="I310" s="50"/>
       <c r="M310" s="12"/>
     </row>
     <row r="311" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="1"/>
-      <c r="B311" s="48"/>
-      <c r="C311" s="48"/>
-      <c r="D311" s="48"/>
-      <c r="E311" s="48"/>
-      <c r="F311" s="48"/>
-      <c r="G311" s="48"/>
-      <c r="H311" s="48"/>
-      <c r="I311" s="48"/>
+      <c r="A311" s="38"/>
+      <c r="B311" s="50"/>
+      <c r="C311" s="50"/>
+      <c r="D311" s="50"/>
+      <c r="E311" s="50"/>
+      <c r="F311" s="50"/>
+      <c r="G311" s="50"/>
+      <c r="H311" s="50"/>
+      <c r="I311" s="50"/>
     </row>
     <row r="312" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="1"/>
-      <c r="B312" s="48"/>
-      <c r="C312" s="48"/>
-      <c r="D312" s="48"/>
-      <c r="E312" s="48"/>
-      <c r="F312" s="48"/>
-      <c r="G312" s="48"/>
-      <c r="H312" s="48"/>
-      <c r="I312" s="48"/>
+      <c r="A312" s="38"/>
+      <c r="B312" s="50"/>
+      <c r="C312" s="50"/>
+      <c r="D312" s="50"/>
+      <c r="E312" s="50"/>
+      <c r="F312" s="50"/>
+      <c r="G312" s="50"/>
+      <c r="H312" s="50"/>
+      <c r="I312" s="50"/>
     </row>
     <row r="313" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="1"/>
-      <c r="B313" s="48"/>
-      <c r="C313" s="48"/>
-      <c r="D313" s="48"/>
-      <c r="E313" s="48"/>
-      <c r="F313" s="48"/>
-      <c r="G313" s="48"/>
-      <c r="H313" s="48"/>
-      <c r="I313" s="48"/>
+      <c r="A313" s="38"/>
+      <c r="B313" s="50"/>
+      <c r="C313" s="50"/>
+      <c r="D313" s="50"/>
+      <c r="E313" s="50"/>
+      <c r="F313" s="50"/>
+      <c r="G313" s="50"/>
+      <c r="H313" s="50"/>
+      <c r="I313" s="50"/>
       <c r="M313" s="5"/>
     </row>
     <row r="314" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="1"/>
+      <c r="A314" s="38"/>
       <c r="B314" s="13"/>
       <c r="C314" s="13"/>
       <c r="D314" s="13"/>
@@ -4739,10 +4746,10 @@
       <c r="I314" s="13"/>
     </row>
     <row r="315" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="33" t="s">
+      <c r="A315" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B315" s="34" t="s">
+      <c r="B315" s="31" t="s">
         <v>13</v>
       </c>
       <c r="D315" s="16"/>
@@ -4750,7 +4757,7 @@
       <c r="F315" s="16"/>
       <c r="G315" s="16"/>
       <c r="H315" s="16"/>
-      <c r="I315" s="33"/>
+      <c r="I315" s="30"/>
     </row>
     <row r="316" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="21" t="s">
@@ -4767,112 +4774,112 @@
       <c r="I316" s="21"/>
     </row>
     <row r="317" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="1"/>
-      <c r="B317" s="48" t="s">
+      <c r="A317" s="38"/>
+      <c r="B317" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C317" s="48"/>
-      <c r="D317" s="48"/>
-      <c r="E317" s="48"/>
-      <c r="F317" s="48"/>
-      <c r="G317" s="48"/>
-      <c r="H317" s="48"/>
-      <c r="I317" s="48"/>
+      <c r="C317" s="50"/>
+      <c r="D317" s="50"/>
+      <c r="E317" s="50"/>
+      <c r="F317" s="50"/>
+      <c r="G317" s="50"/>
+      <c r="H317" s="50"/>
+      <c r="I317" s="50"/>
     </row>
     <row r="318" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="1"/>
-      <c r="B318" s="48"/>
-      <c r="C318" s="48"/>
-      <c r="D318" s="48"/>
-      <c r="E318" s="48"/>
-      <c r="F318" s="48"/>
-      <c r="G318" s="48"/>
-      <c r="H318" s="48"/>
-      <c r="I318" s="48"/>
+      <c r="A318" s="38"/>
+      <c r="B318" s="50"/>
+      <c r="C318" s="50"/>
+      <c r="D318" s="50"/>
+      <c r="E318" s="50"/>
+      <c r="F318" s="50"/>
+      <c r="G318" s="50"/>
+      <c r="H318" s="50"/>
+      <c r="I318" s="50"/>
     </row>
     <row r="319" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="1"/>
-      <c r="B319" s="53" t="s">
+      <c r="A319" s="38"/>
+      <c r="B319" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="C319" s="54"/>
-      <c r="D319" s="54"/>
-      <c r="E319" s="55"/>
-      <c r="F319" s="39" t="s">
+      <c r="C319" s="65"/>
+      <c r="D319" s="65"/>
+      <c r="E319" s="66"/>
+      <c r="F319" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="G319" s="39" t="s">
+      <c r="G319" s="34" t="s">
         <v>97</v>
       </c>
       <c r="H319" s="9"/>
     </row>
     <row r="320" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="1"/>
-      <c r="B320" s="56"/>
-      <c r="C320" s="57"/>
-      <c r="D320" s="57"/>
-      <c r="E320" s="58"/>
-      <c r="F320" s="31"/>
-      <c r="G320" s="31"/>
+      <c r="A320" s="38"/>
+      <c r="B320" s="58"/>
+      <c r="C320" s="59"/>
+      <c r="D320" s="59"/>
+      <c r="E320" s="60"/>
+      <c r="F320" s="67"/>
+      <c r="G320" s="67"/>
       <c r="H320" s="23"/>
       <c r="I320" s="7"/>
     </row>
     <row r="321" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="1"/>
-      <c r="B321" s="56"/>
-      <c r="C321" s="57"/>
-      <c r="D321" s="57"/>
-      <c r="E321" s="58"/>
-      <c r="F321" s="31"/>
-      <c r="G321" s="31"/>
+      <c r="A321" s="38"/>
+      <c r="B321" s="58"/>
+      <c r="C321" s="59"/>
+      <c r="D321" s="59"/>
+      <c r="E321" s="60"/>
+      <c r="F321" s="67"/>
+      <c r="G321" s="67"/>
       <c r="H321" s="23"/>
       <c r="I321" s="7"/>
     </row>
     <row r="322" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="1"/>
-      <c r="B322" s="56"/>
-      <c r="C322" s="57"/>
-      <c r="D322" s="57"/>
-      <c r="E322" s="58"/>
-      <c r="F322" s="31"/>
-      <c r="G322" s="31"/>
+      <c r="A322" s="38"/>
+      <c r="B322" s="58"/>
+      <c r="C322" s="59"/>
+      <c r="D322" s="59"/>
+      <c r="E322" s="60"/>
+      <c r="F322" s="67"/>
+      <c r="G322" s="67"/>
       <c r="H322" s="23"/>
       <c r="I322" s="7"/>
     </row>
     <row r="323" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="1"/>
-      <c r="B323" s="56"/>
-      <c r="C323" s="57"/>
-      <c r="D323" s="57"/>
-      <c r="E323" s="58"/>
-      <c r="F323" s="31"/>
-      <c r="G323" s="31"/>
+      <c r="A323" s="38"/>
+      <c r="B323" s="58"/>
+      <c r="C323" s="59"/>
+      <c r="D323" s="59"/>
+      <c r="E323" s="60"/>
+      <c r="F323" s="67"/>
+      <c r="G323" s="67"/>
       <c r="H323" s="23"/>
       <c r="I323" s="7"/>
     </row>
     <row r="324" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="1"/>
-      <c r="B324" s="56"/>
-      <c r="C324" s="57"/>
-      <c r="D324" s="57"/>
-      <c r="E324" s="58"/>
-      <c r="F324" s="31"/>
-      <c r="G324" s="31"/>
+      <c r="A324" s="38"/>
+      <c r="B324" s="58"/>
+      <c r="C324" s="59"/>
+      <c r="D324" s="59"/>
+      <c r="E324" s="60"/>
+      <c r="F324" s="67"/>
+      <c r="G324" s="67"/>
       <c r="H324" s="23"/>
       <c r="I324" s="7"/>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A325" s="1"/>
-      <c r="C325" s="59" t="s">
+      <c r="A325" s="38"/>
+      <c r="C325" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="D325" s="59"/>
-      <c r="E325" s="59"/>
-      <c r="F325" s="40">
+      <c r="D325" s="61"/>
+      <c r="E325" s="61"/>
+      <c r="F325" s="35">
         <f>SUM(F323:F324)</f>
         <v>0</v>
       </c>
-      <c r="G325" s="40">
+      <c r="G325" s="35">
         <f>SUM(G323:G324)</f>
         <v>0</v>
       </c>
@@ -4893,42 +4900,42 @@
       <c r="H326" s="23"/>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A327" s="1"/>
-      <c r="B327" s="48" t="s">
+      <c r="A327" s="38"/>
+      <c r="B327" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C327" s="48"/>
-      <c r="D327" s="48"/>
-      <c r="E327" s="48"/>
-      <c r="F327" s="48"/>
-      <c r="G327" s="48"/>
-      <c r="H327" s="48"/>
-      <c r="I327" s="48"/>
+      <c r="C327" s="50"/>
+      <c r="D327" s="50"/>
+      <c r="E327" s="50"/>
+      <c r="F327" s="50"/>
+      <c r="G327" s="50"/>
+      <c r="H327" s="50"/>
+      <c r="I327" s="50"/>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="21"/>
-      <c r="B328" s="48"/>
-      <c r="C328" s="48"/>
-      <c r="D328" s="48"/>
-      <c r="E328" s="48"/>
-      <c r="F328" s="48"/>
-      <c r="G328" s="48"/>
-      <c r="H328" s="48"/>
-      <c r="I328" s="48"/>
+      <c r="B328" s="50"/>
+      <c r="C328" s="50"/>
+      <c r="D328" s="50"/>
+      <c r="E328" s="50"/>
+      <c r="F328" s="50"/>
+      <c r="G328" s="50"/>
+      <c r="H328" s="50"/>
+      <c r="I328" s="50"/>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="21"/>
-      <c r="B329" s="48"/>
-      <c r="C329" s="48"/>
-      <c r="D329" s="48"/>
-      <c r="E329" s="48"/>
-      <c r="F329" s="48"/>
-      <c r="G329" s="48"/>
-      <c r="H329" s="48"/>
-      <c r="I329" s="48"/>
+      <c r="B329" s="50"/>
+      <c r="C329" s="50"/>
+      <c r="D329" s="50"/>
+      <c r="E329" s="50"/>
+      <c r="F329" s="50"/>
+      <c r="G329" s="50"/>
+      <c r="H329" s="50"/>
+      <c r="I329" s="50"/>
     </row>
     <row r="330" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="1"/>
+      <c r="A330" s="38"/>
       <c r="B330" t="s">
         <v>16</v>
       </c>
@@ -4944,7 +4951,7 @@
       <c r="H330" s="24"/>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A331" s="1"/>
+      <c r="A331" s="38"/>
       <c r="B331" t="s">
         <v>133</v>
       </c>
@@ -4960,7 +4967,7 @@
       <c r="H331" s="24"/>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A332" s="1"/>
+      <c r="A332" s="38"/>
       <c r="B332" t="s">
         <v>134</v>
       </c>
@@ -4976,7 +4983,7 @@
       <c r="H332" s="24"/>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A333" s="1"/>
+      <c r="A333" s="38"/>
       <c r="E333" s="25"/>
       <c r="F333" s="25"/>
       <c r="H333" s="24"/>
@@ -4993,19 +5000,19 @@
       <c r="H334" s="24"/>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A335" s="1"/>
+      <c r="A335" s="38"/>
       <c r="B335" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C335" s="41"/>
-      <c r="D335" s="41"/>
-      <c r="E335" s="41"/>
-      <c r="F335" s="40"/>
-      <c r="G335" s="40"/>
+      <c r="C335" s="36"/>
+      <c r="D335" s="36"/>
+      <c r="E335" s="36"/>
+      <c r="F335" s="35"/>
+      <c r="G335" s="35"/>
       <c r="H335" s="23"/>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A336" s="46"/>
+      <c r="A336" s="44"/>
       <c r="B336" s="17"/>
       <c r="C336" s="17"/>
       <c r="D336" s="17"/>
@@ -5016,10 +5023,10 @@
       <c r="I336" s="17"/>
     </row>
     <row r="337" spans="1:6" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="33" t="s">
+      <c r="A337" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B337" s="34" t="s">
+      <c r="B337" s="31" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5040,7 +5047,7 @@
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A340" s="1"/>
+      <c r="A340" s="38"/>
       <c r="B340" s="12" t="s">
         <v>45</v>
       </c>
@@ -5049,11 +5056,13 @@
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341" s="1"/>
-      <c r="B341" s="12"/>
+      <c r="A341" s="38"/>
+      <c r="B341" s="12" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" s="1"/>
+      <c r="A342" s="38"/>
       <c r="B342" s="12" t="s">
         <v>46</v>
       </c>
@@ -5062,723 +5071,753 @@
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" s="1"/>
+      <c r="A343" s="38"/>
       <c r="B343" s="12"/>
       <c r="F343" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" s="1"/>
+      <c r="A344" s="38"/>
       <c r="B344" s="12"/>
       <c r="F344" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" s="1"/>
+      <c r="A345" s="38"/>
       <c r="B345" s="12"/>
       <c r="F345" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" s="1"/>
+      <c r="A346" s="38"/>
       <c r="B346" s="12"/>
       <c r="F346" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" s="1"/>
+      <c r="A347" s="38"/>
       <c r="B347" s="12"/>
       <c r="F347" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="1"/>
+      <c r="A348" s="38"/>
       <c r="B348" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="349" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="1"/>
+      <c r="A349" s="38"/>
       <c r="B349" s="10"/>
     </row>
     <row r="350" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="1"/>
+      <c r="A350" s="38"/>
       <c r="B350" s="10"/>
     </row>
     <row r="351" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="1"/>
+      <c r="A351" s="38"/>
       <c r="B351" s="10"/>
     </row>
     <row r="352" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="1"/>
+      <c r="A352" s="38"/>
       <c r="B352" s="10"/>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A353" s="1"/>
+      <c r="A353" s="38"/>
       <c r="B353" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F353" s="60">
+      <c r="F353" s="57">
         <f ca="1">TODAY()</f>
-        <v>45320</v>
-      </c>
-      <c r="G353" s="60"/>
+        <v>45357</v>
+      </c>
+      <c r="G353" s="57"/>
     </row>
     <row r="354" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="36" t="s">
+      <c r="A354" s="45" t="s">
         <v>50</v>
       </c>
       <c r="C354" s="6"/>
       <c r="I354" s="21"/>
     </row>
     <row r="355" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="8">
+      <c r="A355" s="46">
         <v>1</v>
       </c>
-      <c r="B355" s="47" t="s">
+      <c r="B355" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C355" s="47"/>
-      <c r="D355" s="47"/>
-      <c r="E355" s="47"/>
-      <c r="F355" s="47"/>
-      <c r="G355" s="47"/>
-      <c r="H355" s="47"/>
-      <c r="I355" s="47"/>
+      <c r="C355" s="56"/>
+      <c r="D355" s="56"/>
+      <c r="E355" s="56"/>
+      <c r="F355" s="56"/>
+      <c r="G355" s="56"/>
+      <c r="H355" s="56"/>
+      <c r="I355" s="56"/>
     </row>
     <row r="356" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="8">
+      <c r="A356" s="46">
         <v>2</v>
       </c>
-      <c r="B356" s="47" t="s">
+      <c r="B356" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C356" s="47"/>
-      <c r="D356" s="47"/>
-      <c r="E356" s="47"/>
-      <c r="F356" s="47"/>
-      <c r="G356" s="47"/>
-      <c r="H356" s="47"/>
-      <c r="I356" s="47"/>
+      <c r="C356" s="56"/>
+      <c r="D356" s="56"/>
+      <c r="E356" s="56"/>
+      <c r="F356" s="56"/>
+      <c r="G356" s="56"/>
+      <c r="H356" s="56"/>
+      <c r="I356" s="56"/>
     </row>
     <row r="357" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="8">
+      <c r="A357" s="46">
         <v>3</v>
       </c>
-      <c r="B357" s="47" t="s">
+      <c r="B357" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C357" s="47"/>
-      <c r="D357" s="47"/>
-      <c r="E357" s="47"/>
-      <c r="F357" s="47"/>
-      <c r="G357" s="47"/>
-      <c r="H357" s="47"/>
-      <c r="I357" s="47"/>
+      <c r="C357" s="56"/>
+      <c r="D357" s="56"/>
+      <c r="E357" s="56"/>
+      <c r="F357" s="56"/>
+      <c r="G357" s="56"/>
+      <c r="H357" s="56"/>
+      <c r="I357" s="56"/>
     </row>
     <row r="358" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="8">
+      <c r="A358" s="46">
         <v>4</v>
       </c>
-      <c r="B358" s="47" t="s">
+      <c r="B358" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C358" s="47"/>
-      <c r="D358" s="47"/>
-      <c r="E358" s="47"/>
-      <c r="F358" s="47"/>
-      <c r="G358" s="47"/>
-      <c r="H358" s="47"/>
-      <c r="I358" s="47"/>
+      <c r="C358" s="56"/>
+      <c r="D358" s="56"/>
+      <c r="E358" s="56"/>
+      <c r="F358" s="56"/>
+      <c r="G358" s="56"/>
+      <c r="H358" s="56"/>
+      <c r="I358" s="56"/>
     </row>
     <row r="359" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="8">
+      <c r="A359" s="46">
         <v>5</v>
       </c>
-      <c r="B359" s="47" t="s">
+      <c r="B359" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C359" s="47"/>
-      <c r="D359" s="47"/>
-      <c r="E359" s="47"/>
-      <c r="F359" s="47"/>
-      <c r="G359" s="47"/>
-      <c r="H359" s="47"/>
-      <c r="I359" s="47"/>
+      <c r="C359" s="56"/>
+      <c r="D359" s="56"/>
+      <c r="E359" s="56"/>
+      <c r="F359" s="56"/>
+      <c r="G359" s="56"/>
+      <c r="H359" s="56"/>
+      <c r="I359" s="56"/>
     </row>
     <row r="360" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="8"/>
-      <c r="B360" s="47" t="s">
+      <c r="A360" s="46"/>
+      <c r="B360" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C360" s="47"/>
-      <c r="D360" s="47"/>
-      <c r="E360" s="47"/>
-      <c r="F360" s="47"/>
-      <c r="G360" s="47"/>
-      <c r="H360" s="47"/>
-      <c r="I360" s="47"/>
+      <c r="C360" s="56"/>
+      <c r="D360" s="56"/>
+      <c r="E360" s="56"/>
+      <c r="F360" s="56"/>
+      <c r="G360" s="56"/>
+      <c r="H360" s="56"/>
+      <c r="I360" s="56"/>
     </row>
     <row r="361" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="8"/>
-      <c r="B361" s="47" t="s">
+      <c r="A361" s="46"/>
+      <c r="B361" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C361" s="47"/>
-      <c r="D361" s="47"/>
-      <c r="E361" s="47"/>
-      <c r="F361" s="47"/>
-      <c r="G361" s="47"/>
-      <c r="H361" s="47"/>
-      <c r="I361" s="47"/>
+      <c r="C361" s="56"/>
+      <c r="D361" s="56"/>
+      <c r="E361" s="56"/>
+      <c r="F361" s="56"/>
+      <c r="G361" s="56"/>
+      <c r="H361" s="56"/>
+      <c r="I361" s="56"/>
     </row>
     <row r="362" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="8"/>
-      <c r="B362" s="47" t="s">
+      <c r="A362" s="46"/>
+      <c r="B362" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C362" s="47"/>
-      <c r="D362" s="47"/>
-      <c r="E362" s="47"/>
-      <c r="F362" s="47"/>
-      <c r="G362" s="47"/>
-      <c r="H362" s="47"/>
-      <c r="I362" s="47"/>
+      <c r="C362" s="56"/>
+      <c r="D362" s="56"/>
+      <c r="E362" s="56"/>
+      <c r="F362" s="56"/>
+      <c r="G362" s="56"/>
+      <c r="H362" s="56"/>
+      <c r="I362" s="56"/>
     </row>
     <row r="363" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="8">
+      <c r="A363" s="46">
         <v>6</v>
       </c>
-      <c r="B363" s="47" t="s">
+      <c r="B363" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C363" s="47"/>
-      <c r="D363" s="47"/>
-      <c r="E363" s="47"/>
-      <c r="F363" s="47"/>
-      <c r="G363" s="47"/>
-      <c r="H363" s="47"/>
-      <c r="I363" s="47"/>
+      <c r="C363" s="56"/>
+      <c r="D363" s="56"/>
+      <c r="E363" s="56"/>
+      <c r="F363" s="56"/>
+      <c r="G363" s="56"/>
+      <c r="H363" s="56"/>
+      <c r="I363" s="56"/>
     </row>
     <row r="364" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="8"/>
-      <c r="B364" s="47" t="s">
+      <c r="A364" s="46"/>
+      <c r="B364" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C364" s="47"/>
-      <c r="D364" s="47"/>
-      <c r="E364" s="47"/>
-      <c r="F364" s="47"/>
-      <c r="G364" s="47"/>
-      <c r="H364" s="47"/>
-      <c r="I364" s="47"/>
+      <c r="C364" s="56"/>
+      <c r="D364" s="56"/>
+      <c r="E364" s="56"/>
+      <c r="F364" s="56"/>
+      <c r="G364" s="56"/>
+      <c r="H364" s="56"/>
+      <c r="I364" s="56"/>
     </row>
     <row r="365" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="8"/>
-      <c r="B365" s="47" t="s">
+      <c r="A365" s="46"/>
+      <c r="B365" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C365" s="47"/>
-      <c r="D365" s="47"/>
-      <c r="E365" s="47"/>
-      <c r="F365" s="47"/>
-      <c r="G365" s="47"/>
-      <c r="H365" s="47"/>
-      <c r="I365" s="47"/>
+      <c r="C365" s="56"/>
+      <c r="D365" s="56"/>
+      <c r="E365" s="56"/>
+      <c r="F365" s="56"/>
+      <c r="G365" s="56"/>
+      <c r="H365" s="56"/>
+      <c r="I365" s="56"/>
     </row>
     <row r="366" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="8">
+      <c r="A366" s="46">
         <v>7</v>
       </c>
-      <c r="B366" s="47" t="s">
+      <c r="B366" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C366" s="47"/>
-      <c r="D366" s="47"/>
-      <c r="E366" s="47"/>
-      <c r="F366" s="47"/>
-      <c r="G366" s="47"/>
-      <c r="H366" s="47"/>
-      <c r="I366" s="47"/>
+      <c r="C366" s="56"/>
+      <c r="D366" s="56"/>
+      <c r="E366" s="56"/>
+      <c r="F366" s="56"/>
+      <c r="G366" s="56"/>
+      <c r="H366" s="56"/>
+      <c r="I366" s="56"/>
     </row>
     <row r="367" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="8">
+      <c r="A367" s="46">
         <v>8</v>
       </c>
-      <c r="B367" s="47" t="s">
+      <c r="B367" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C367" s="47"/>
-      <c r="D367" s="47"/>
-      <c r="E367" s="47"/>
-      <c r="F367" s="47"/>
-      <c r="G367" s="47"/>
-      <c r="H367" s="47"/>
-      <c r="I367" s="47"/>
+      <c r="C367" s="56"/>
+      <c r="D367" s="56"/>
+      <c r="E367" s="56"/>
+      <c r="F367" s="56"/>
+      <c r="G367" s="56"/>
+      <c r="H367" s="56"/>
+      <c r="I367" s="56"/>
     </row>
     <row r="368" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="8"/>
-      <c r="B368" s="47" t="s">
+      <c r="A368" s="46"/>
+      <c r="B368" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C368" s="47"/>
-      <c r="D368" s="47"/>
-      <c r="E368" s="47"/>
-      <c r="F368" s="47"/>
-      <c r="G368" s="47"/>
-      <c r="H368" s="47"/>
-      <c r="I368" s="47"/>
+      <c r="C368" s="56"/>
+      <c r="D368" s="56"/>
+      <c r="E368" s="56"/>
+      <c r="F368" s="56"/>
+      <c r="G368" s="56"/>
+      <c r="H368" s="56"/>
+      <c r="I368" s="56"/>
     </row>
     <row r="369" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="8"/>
-      <c r="B369" s="47" t="s">
+      <c r="A369" s="46"/>
+      <c r="B369" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C369" s="47"/>
-      <c r="D369" s="47"/>
-      <c r="E369" s="47"/>
-      <c r="F369" s="47"/>
-      <c r="G369" s="47"/>
-      <c r="H369" s="47"/>
-      <c r="I369" s="47"/>
+      <c r="C369" s="56"/>
+      <c r="D369" s="56"/>
+      <c r="E369" s="56"/>
+      <c r="F369" s="56"/>
+      <c r="G369" s="56"/>
+      <c r="H369" s="56"/>
+      <c r="I369" s="56"/>
     </row>
     <row r="370" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="8"/>
-      <c r="B370" s="47" t="s">
+      <c r="A370" s="46"/>
+      <c r="B370" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C370" s="47"/>
-      <c r="D370" s="47"/>
-      <c r="E370" s="47"/>
-      <c r="F370" s="47"/>
-      <c r="G370" s="47"/>
-      <c r="H370" s="47"/>
-      <c r="I370" s="47"/>
+      <c r="C370" s="56"/>
+      <c r="D370" s="56"/>
+      <c r="E370" s="56"/>
+      <c r="F370" s="56"/>
+      <c r="G370" s="56"/>
+      <c r="H370" s="56"/>
+      <c r="I370" s="56"/>
     </row>
     <row r="371" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="8"/>
-      <c r="B371" s="47" t="s">
+      <c r="A371" s="46"/>
+      <c r="B371" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="C371" s="47"/>
-      <c r="D371" s="47"/>
-      <c r="E371" s="47"/>
-      <c r="F371" s="47"/>
-      <c r="G371" s="47"/>
-      <c r="H371" s="47"/>
-      <c r="I371" s="47"/>
+      <c r="C371" s="56"/>
+      <c r="D371" s="56"/>
+      <c r="E371" s="56"/>
+      <c r="F371" s="56"/>
+      <c r="G371" s="56"/>
+      <c r="H371" s="56"/>
+      <c r="I371" s="56"/>
     </row>
     <row r="372" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="8"/>
-      <c r="B372" s="47" t="s">
+      <c r="A372" s="46"/>
+      <c r="B372" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C372" s="47"/>
-      <c r="D372" s="47"/>
-      <c r="E372" s="47"/>
-      <c r="F372" s="47"/>
-      <c r="G372" s="47"/>
-      <c r="H372" s="47"/>
-      <c r="I372" s="47"/>
+      <c r="C372" s="56"/>
+      <c r="D372" s="56"/>
+      <c r="E372" s="56"/>
+      <c r="F372" s="56"/>
+      <c r="G372" s="56"/>
+      <c r="H372" s="56"/>
+      <c r="I372" s="56"/>
     </row>
     <row r="373" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="8"/>
-      <c r="B373" s="47" t="s">
+      <c r="A373" s="46"/>
+      <c r="B373" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="C373" s="47"/>
-      <c r="D373" s="47"/>
-      <c r="E373" s="47"/>
-      <c r="F373" s="47"/>
-      <c r="G373" s="47"/>
-      <c r="H373" s="47"/>
-      <c r="I373" s="47"/>
+      <c r="C373" s="56"/>
+      <c r="D373" s="56"/>
+      <c r="E373" s="56"/>
+      <c r="F373" s="56"/>
+      <c r="G373" s="56"/>
+      <c r="H373" s="56"/>
+      <c r="I373" s="56"/>
     </row>
     <row r="374" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="8">
+      <c r="A374" s="46">
         <v>9</v>
       </c>
-      <c r="B374" s="47" t="s">
+      <c r="B374" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C374" s="47"/>
-      <c r="D374" s="47"/>
-      <c r="E374" s="47"/>
-      <c r="F374" s="47"/>
-      <c r="G374" s="47"/>
-      <c r="H374" s="47"/>
-      <c r="I374" s="47"/>
+      <c r="C374" s="56"/>
+      <c r="D374" s="56"/>
+      <c r="E374" s="56"/>
+      <c r="F374" s="56"/>
+      <c r="G374" s="56"/>
+      <c r="H374" s="56"/>
+      <c r="I374" s="56"/>
     </row>
     <row r="375" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="8">
+      <c r="A375" s="46">
         <v>10</v>
       </c>
-      <c r="B375" s="47" t="s">
+      <c r="B375" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="C375" s="47"/>
-      <c r="D375" s="47"/>
-      <c r="E375" s="47"/>
-      <c r="F375" s="47"/>
-      <c r="G375" s="47"/>
-      <c r="H375" s="47"/>
-      <c r="I375" s="47"/>
+      <c r="C375" s="56"/>
+      <c r="D375" s="56"/>
+      <c r="E375" s="56"/>
+      <c r="F375" s="56"/>
+      <c r="G375" s="56"/>
+      <c r="H375" s="56"/>
+      <c r="I375" s="56"/>
     </row>
     <row r="376" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="8"/>
-      <c r="B376" s="47" t="s">
+      <c r="A376" s="46"/>
+      <c r="B376" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="C376" s="47"/>
-      <c r="D376" s="47"/>
-      <c r="E376" s="47"/>
-      <c r="F376" s="47"/>
-      <c r="G376" s="47"/>
-      <c r="H376" s="47"/>
-      <c r="I376" s="47"/>
+      <c r="C376" s="56"/>
+      <c r="D376" s="56"/>
+      <c r="E376" s="56"/>
+      <c r="F376" s="56"/>
+      <c r="G376" s="56"/>
+      <c r="H376" s="56"/>
+      <c r="I376" s="56"/>
     </row>
     <row r="377" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="8"/>
-      <c r="B377" s="47" t="s">
+      <c r="A377" s="46"/>
+      <c r="B377" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="C377" s="47"/>
-      <c r="D377" s="47"/>
-      <c r="E377" s="47"/>
-      <c r="F377" s="47"/>
-      <c r="G377" s="47"/>
-      <c r="H377" s="47"/>
-      <c r="I377" s="47"/>
+      <c r="C377" s="56"/>
+      <c r="D377" s="56"/>
+      <c r="E377" s="56"/>
+      <c r="F377" s="56"/>
+      <c r="G377" s="56"/>
+      <c r="H377" s="56"/>
+      <c r="I377" s="56"/>
     </row>
     <row r="378" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="8"/>
-      <c r="B378" s="47" t="s">
+      <c r="A378" s="46"/>
+      <c r="B378" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="C378" s="47"/>
-      <c r="D378" s="47"/>
-      <c r="E378" s="47"/>
-      <c r="F378" s="47"/>
-      <c r="G378" s="47"/>
-      <c r="H378" s="47"/>
-      <c r="I378" s="47"/>
+      <c r="C378" s="56"/>
+      <c r="D378" s="56"/>
+      <c r="E378" s="56"/>
+      <c r="F378" s="56"/>
+      <c r="G378" s="56"/>
+      <c r="H378" s="56"/>
+      <c r="I378" s="56"/>
     </row>
     <row r="379" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="8"/>
-      <c r="B379" s="47" t="s">
+      <c r="A379" s="46"/>
+      <c r="B379" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C379" s="47"/>
-      <c r="D379" s="47"/>
-      <c r="E379" s="47"/>
-      <c r="F379" s="47"/>
-      <c r="G379" s="47"/>
-      <c r="H379" s="47"/>
-      <c r="I379" s="47"/>
+      <c r="C379" s="56"/>
+      <c r="D379" s="56"/>
+      <c r="E379" s="56"/>
+      <c r="F379" s="56"/>
+      <c r="G379" s="56"/>
+      <c r="H379" s="56"/>
+      <c r="I379" s="56"/>
     </row>
     <row r="380" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="8">
+      <c r="A380" s="46">
         <v>11</v>
       </c>
-      <c r="B380" s="47" t="s">
+      <c r="B380" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C380" s="47"/>
-      <c r="D380" s="47"/>
-      <c r="E380" s="47"/>
-      <c r="F380" s="47"/>
-      <c r="G380" s="47"/>
-      <c r="H380" s="47"/>
-      <c r="I380" s="47"/>
+      <c r="C380" s="56"/>
+      <c r="D380" s="56"/>
+      <c r="E380" s="56"/>
+      <c r="F380" s="56"/>
+      <c r="G380" s="56"/>
+      <c r="H380" s="56"/>
+      <c r="I380" s="56"/>
     </row>
     <row r="381" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="8"/>
-      <c r="B381" s="47" t="s">
+      <c r="A381" s="46"/>
+      <c r="B381" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C381" s="47"/>
-      <c r="D381" s="47"/>
-      <c r="E381" s="47"/>
-      <c r="F381" s="47"/>
-      <c r="G381" s="47"/>
-      <c r="H381" s="47"/>
-      <c r="I381" s="47"/>
+      <c r="C381" s="56"/>
+      <c r="D381" s="56"/>
+      <c r="E381" s="56"/>
+      <c r="F381" s="56"/>
+      <c r="G381" s="56"/>
+      <c r="H381" s="56"/>
+      <c r="I381" s="56"/>
     </row>
     <row r="382" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="8"/>
-      <c r="B382" s="47" t="s">
+      <c r="A382" s="46"/>
+      <c r="B382" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="C382" s="47"/>
-      <c r="D382" s="47"/>
-      <c r="E382" s="47"/>
-      <c r="F382" s="47"/>
-      <c r="G382" s="47"/>
-      <c r="H382" s="47"/>
-      <c r="I382" s="47"/>
+      <c r="C382" s="56"/>
+      <c r="D382" s="56"/>
+      <c r="E382" s="56"/>
+      <c r="F382" s="56"/>
+      <c r="G382" s="56"/>
+      <c r="H382" s="56"/>
+      <c r="I382" s="56"/>
     </row>
     <row r="383" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="8">
+      <c r="A383" s="46">
         <v>12</v>
       </c>
-      <c r="B383" s="47" t="s">
+      <c r="B383" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="C383" s="47"/>
-      <c r="D383" s="47"/>
-      <c r="E383" s="47"/>
-      <c r="F383" s="47"/>
-      <c r="G383" s="47"/>
-      <c r="H383" s="47"/>
-      <c r="I383" s="47"/>
+      <c r="C383" s="56"/>
+      <c r="D383" s="56"/>
+      <c r="E383" s="56"/>
+      <c r="F383" s="56"/>
+      <c r="G383" s="56"/>
+      <c r="H383" s="56"/>
+      <c r="I383" s="56"/>
     </row>
     <row r="384" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="8"/>
-      <c r="B384" s="47" t="s">
+      <c r="A384" s="46"/>
+      <c r="B384" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C384" s="47"/>
-      <c r="D384" s="47"/>
-      <c r="E384" s="47"/>
-      <c r="F384" s="47"/>
-      <c r="G384" s="47"/>
-      <c r="H384" s="47"/>
-      <c r="I384" s="47"/>
+      <c r="C384" s="56"/>
+      <c r="D384" s="56"/>
+      <c r="E384" s="56"/>
+      <c r="F384" s="56"/>
+      <c r="G384" s="56"/>
+      <c r="H384" s="56"/>
+      <c r="I384" s="56"/>
     </row>
     <row r="385" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="8"/>
-      <c r="B385" s="47" t="s">
+      <c r="A385" s="46"/>
+      <c r="B385" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="C385" s="47"/>
-      <c r="D385" s="47"/>
-      <c r="E385" s="47"/>
-      <c r="F385" s="47"/>
-      <c r="G385" s="47"/>
-      <c r="H385" s="47"/>
-      <c r="I385" s="47"/>
+      <c r="C385" s="56"/>
+      <c r="D385" s="56"/>
+      <c r="E385" s="56"/>
+      <c r="F385" s="56"/>
+      <c r="G385" s="56"/>
+      <c r="H385" s="56"/>
+      <c r="I385" s="56"/>
     </row>
     <row r="386" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="8"/>
-      <c r="B386" s="47" t="s">
+      <c r="A386" s="46"/>
+      <c r="B386" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C386" s="47"/>
-      <c r="D386" s="47"/>
-      <c r="E386" s="47"/>
-      <c r="F386" s="47"/>
-      <c r="G386" s="47"/>
-      <c r="H386" s="47"/>
-      <c r="I386" s="47"/>
+      <c r="C386" s="56"/>
+      <c r="D386" s="56"/>
+      <c r="E386" s="56"/>
+      <c r="F386" s="56"/>
+      <c r="G386" s="56"/>
+      <c r="H386" s="56"/>
+      <c r="I386" s="56"/>
     </row>
     <row r="387" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="8"/>
-      <c r="B387" s="47" t="s">
+      <c r="A387" s="46"/>
+      <c r="B387" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="C387" s="47"/>
-      <c r="D387" s="47"/>
-      <c r="E387" s="47"/>
-      <c r="F387" s="47"/>
-      <c r="G387" s="47"/>
-      <c r="H387" s="47"/>
-      <c r="I387" s="47"/>
+      <c r="C387" s="56"/>
+      <c r="D387" s="56"/>
+      <c r="E387" s="56"/>
+      <c r="F387" s="56"/>
+      <c r="G387" s="56"/>
+      <c r="H387" s="56"/>
+      <c r="I387" s="56"/>
     </row>
     <row r="388" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="8">
+      <c r="A388" s="46">
         <v>13</v>
       </c>
-      <c r="B388" s="47" t="s">
+      <c r="B388" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="C388" s="47"/>
-      <c r="D388" s="47"/>
-      <c r="E388" s="47"/>
-      <c r="F388" s="47"/>
-      <c r="G388" s="47"/>
-      <c r="H388" s="47"/>
-      <c r="I388" s="47"/>
+      <c r="C388" s="56"/>
+      <c r="D388" s="56"/>
+      <c r="E388" s="56"/>
+      <c r="F388" s="56"/>
+      <c r="G388" s="56"/>
+      <c r="H388" s="56"/>
+      <c r="I388" s="56"/>
     </row>
     <row r="389" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="8"/>
-      <c r="B389" s="47" t="s">
+      <c r="A389" s="46"/>
+      <c r="B389" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="C389" s="47"/>
-      <c r="D389" s="47"/>
-      <c r="E389" s="47"/>
-      <c r="F389" s="47"/>
-      <c r="G389" s="47"/>
-      <c r="H389" s="47"/>
-      <c r="I389" s="47"/>
+      <c r="C389" s="56"/>
+      <c r="D389" s="56"/>
+      <c r="E389" s="56"/>
+      <c r="F389" s="56"/>
+      <c r="G389" s="56"/>
+      <c r="H389" s="56"/>
+      <c r="I389" s="56"/>
     </row>
     <row r="390" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="8"/>
-      <c r="B390" s="47" t="s">
+      <c r="A390" s="46"/>
+      <c r="B390" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C390" s="47"/>
-      <c r="D390" s="47"/>
-      <c r="E390" s="47"/>
-      <c r="F390" s="47"/>
-      <c r="G390" s="47"/>
-      <c r="H390" s="47"/>
-      <c r="I390" s="47"/>
+      <c r="C390" s="56"/>
+      <c r="D390" s="56"/>
+      <c r="E390" s="56"/>
+      <c r="F390" s="56"/>
+      <c r="G390" s="56"/>
+      <c r="H390" s="56"/>
+      <c r="I390" s="56"/>
     </row>
     <row r="391" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="8">
+      <c r="A391" s="46">
         <v>14</v>
       </c>
-      <c r="B391" s="47" t="s">
+      <c r="B391" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="C391" s="47"/>
-      <c r="D391" s="47"/>
-      <c r="E391" s="47"/>
-      <c r="F391" s="47"/>
-      <c r="G391" s="47"/>
-      <c r="H391" s="47"/>
-      <c r="I391" s="47"/>
+      <c r="C391" s="56"/>
+      <c r="D391" s="56"/>
+      <c r="E391" s="56"/>
+      <c r="F391" s="56"/>
+      <c r="G391" s="56"/>
+      <c r="H391" s="56"/>
+      <c r="I391" s="56"/>
     </row>
     <row r="392" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="8"/>
-      <c r="B392" s="47" t="s">
+      <c r="A392" s="46"/>
+      <c r="B392" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="C392" s="47"/>
-      <c r="D392" s="47"/>
-      <c r="E392" s="47"/>
-      <c r="F392" s="47"/>
-      <c r="G392" s="47"/>
-      <c r="H392" s="47"/>
-      <c r="I392" s="47"/>
+      <c r="C392" s="56"/>
+      <c r="D392" s="56"/>
+      <c r="E392" s="56"/>
+      <c r="F392" s="56"/>
+      <c r="G392" s="56"/>
+      <c r="H392" s="56"/>
+      <c r="I392" s="56"/>
     </row>
     <row r="393" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="8"/>
-      <c r="B393" s="47" t="s">
+      <c r="A393" s="46"/>
+      <c r="B393" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C393" s="47"/>
-      <c r="D393" s="47"/>
-      <c r="E393" s="47"/>
-      <c r="F393" s="47"/>
-      <c r="G393" s="47"/>
-      <c r="H393" s="47"/>
-      <c r="I393" s="47"/>
+      <c r="C393" s="56"/>
+      <c r="D393" s="56"/>
+      <c r="E393" s="56"/>
+      <c r="F393" s="56"/>
+      <c r="G393" s="56"/>
+      <c r="H393" s="56"/>
+      <c r="I393" s="56"/>
     </row>
     <row r="394" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="8"/>
-      <c r="B394" s="47" t="s">
+      <c r="A394" s="46"/>
+      <c r="B394" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="C394" s="47"/>
-      <c r="D394" s="47"/>
-      <c r="E394" s="47"/>
-      <c r="F394" s="47"/>
-      <c r="G394" s="47"/>
-      <c r="H394" s="47"/>
-      <c r="I394" s="47"/>
+      <c r="C394" s="56"/>
+      <c r="D394" s="56"/>
+      <c r="E394" s="56"/>
+      <c r="F394" s="56"/>
+      <c r="G394" s="56"/>
+      <c r="H394" s="56"/>
+      <c r="I394" s="56"/>
     </row>
     <row r="395" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="8"/>
-      <c r="B395" s="47" t="s">
+      <c r="A395" s="46"/>
+      <c r="B395" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="C395" s="47"/>
-      <c r="D395" s="47"/>
-      <c r="E395" s="47"/>
-      <c r="F395" s="47"/>
-      <c r="G395" s="47"/>
-      <c r="H395" s="47"/>
-      <c r="I395" s="47"/>
+      <c r="C395" s="56"/>
+      <c r="D395" s="56"/>
+      <c r="E395" s="56"/>
+      <c r="F395" s="56"/>
+      <c r="G395" s="56"/>
+      <c r="H395" s="56"/>
+      <c r="I395" s="56"/>
     </row>
     <row r="396" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="8">
+      <c r="A396" s="46">
         <v>15</v>
       </c>
-      <c r="B396" s="47" t="s">
+      <c r="B396" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="C396" s="47"/>
-      <c r="D396" s="47"/>
-      <c r="E396" s="47"/>
-      <c r="F396" s="47"/>
-      <c r="G396" s="47"/>
-      <c r="H396" s="47"/>
-      <c r="I396" s="47"/>
+      <c r="C396" s="56"/>
+      <c r="D396" s="56"/>
+      <c r="E396" s="56"/>
+      <c r="F396" s="56"/>
+      <c r="G396" s="56"/>
+      <c r="H396" s="56"/>
+      <c r="I396" s="56"/>
     </row>
     <row r="397" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="8">
+      <c r="A397" s="46">
         <v>16</v>
       </c>
-      <c r="B397" s="47" t="s">
+      <c r="B397" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C397" s="47"/>
-      <c r="D397" s="47"/>
-      <c r="E397" s="47"/>
-      <c r="F397" s="47"/>
-      <c r="G397" s="47"/>
-      <c r="H397" s="47"/>
-      <c r="I397" s="47"/>
+      <c r="C397" s="56"/>
+      <c r="D397" s="56"/>
+      <c r="E397" s="56"/>
+      <c r="F397" s="56"/>
+      <c r="G397" s="56"/>
+      <c r="H397" s="56"/>
+      <c r="I397" s="56"/>
     </row>
     <row r="398" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="8">
+      <c r="A398" s="46">
         <v>17</v>
       </c>
-      <c r="B398" s="47" t="s">
+      <c r="B398" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C398" s="47"/>
-      <c r="D398" s="47"/>
-      <c r="E398" s="47"/>
-      <c r="F398" s="47"/>
-      <c r="G398" s="47"/>
-      <c r="H398" s="47"/>
-      <c r="I398" s="47"/>
+      <c r="C398" s="56"/>
+      <c r="D398" s="56"/>
+      <c r="E398" s="56"/>
+      <c r="F398" s="56"/>
+      <c r="G398" s="56"/>
+      <c r="H398" s="56"/>
+      <c r="I398" s="56"/>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A399" s="27"/>
+      <c r="A399" s="47"/>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A400" s="27"/>
+      <c r="A400" s="47"/>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="27"/>
+      <c r="A401" s="47"/>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="27"/>
+      <c r="A402" s="47"/>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="27"/>
+      <c r="A403" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="B285:I285"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B276:I277"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B270:I273"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="Q9:X9"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A11:I14"/>
-    <mergeCell ref="M11:T14"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B321:E321"/>
+    <mergeCell ref="B322:E322"/>
+    <mergeCell ref="B398:I398"/>
+    <mergeCell ref="B310:I313"/>
+    <mergeCell ref="B298:I298"/>
+    <mergeCell ref="B317:I318"/>
+    <mergeCell ref="F304:G304"/>
+    <mergeCell ref="F305:G305"/>
+    <mergeCell ref="F306:G306"/>
+    <mergeCell ref="D304:E304"/>
+    <mergeCell ref="D305:E305"/>
+    <mergeCell ref="D306:E306"/>
+    <mergeCell ref="B303:I303"/>
+    <mergeCell ref="B319:E319"/>
+    <mergeCell ref="B320:E320"/>
+    <mergeCell ref="B323:E323"/>
+    <mergeCell ref="B324:E324"/>
+    <mergeCell ref="B355:I355"/>
+    <mergeCell ref="B356:I356"/>
+    <mergeCell ref="B357:I357"/>
+    <mergeCell ref="B358:I358"/>
+    <mergeCell ref="C325:E325"/>
+    <mergeCell ref="B359:I359"/>
+    <mergeCell ref="F353:G353"/>
+    <mergeCell ref="B327:I329"/>
+    <mergeCell ref="B373:I373"/>
+    <mergeCell ref="B360:I360"/>
+    <mergeCell ref="B361:I361"/>
+    <mergeCell ref="B362:I362"/>
+    <mergeCell ref="B363:I363"/>
+    <mergeCell ref="B369:I369"/>
+    <mergeCell ref="B364:I364"/>
+    <mergeCell ref="B365:I365"/>
+    <mergeCell ref="B366:I366"/>
+    <mergeCell ref="B367:I367"/>
+    <mergeCell ref="B368:I368"/>
+    <mergeCell ref="B370:I370"/>
+    <mergeCell ref="B371:I371"/>
+    <mergeCell ref="B385:I385"/>
+    <mergeCell ref="B374:I374"/>
+    <mergeCell ref="B375:I375"/>
+    <mergeCell ref="B376:I376"/>
+    <mergeCell ref="B377:I377"/>
+    <mergeCell ref="B378:I378"/>
+    <mergeCell ref="B379:I379"/>
+    <mergeCell ref="B380:I380"/>
+    <mergeCell ref="B381:I381"/>
+    <mergeCell ref="B382:I382"/>
+    <mergeCell ref="B383:I383"/>
+    <mergeCell ref="B384:I384"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A8:I9"/>
     <mergeCell ref="A6:I6"/>
@@ -5795,56 +5834,26 @@
     <mergeCell ref="B395:I395"/>
     <mergeCell ref="B396:I396"/>
     <mergeCell ref="B372:I372"/>
-    <mergeCell ref="B385:I385"/>
-    <mergeCell ref="B374:I374"/>
-    <mergeCell ref="B375:I375"/>
-    <mergeCell ref="B376:I376"/>
-    <mergeCell ref="B377:I377"/>
-    <mergeCell ref="B378:I378"/>
-    <mergeCell ref="B379:I379"/>
-    <mergeCell ref="B380:I380"/>
-    <mergeCell ref="B381:I381"/>
-    <mergeCell ref="B382:I382"/>
-    <mergeCell ref="B383:I383"/>
-    <mergeCell ref="B384:I384"/>
-    <mergeCell ref="B359:I359"/>
-    <mergeCell ref="F353:G353"/>
-    <mergeCell ref="B327:I329"/>
-    <mergeCell ref="B373:I373"/>
-    <mergeCell ref="B360:I360"/>
-    <mergeCell ref="B361:I361"/>
-    <mergeCell ref="B362:I362"/>
-    <mergeCell ref="B363:I363"/>
-    <mergeCell ref="B369:I369"/>
-    <mergeCell ref="B364:I364"/>
-    <mergeCell ref="B365:I365"/>
-    <mergeCell ref="B366:I366"/>
-    <mergeCell ref="B367:I367"/>
-    <mergeCell ref="B368:I368"/>
-    <mergeCell ref="B370:I370"/>
-    <mergeCell ref="B371:I371"/>
-    <mergeCell ref="B324:E324"/>
-    <mergeCell ref="B355:I355"/>
-    <mergeCell ref="B356:I356"/>
-    <mergeCell ref="B357:I357"/>
-    <mergeCell ref="B358:I358"/>
-    <mergeCell ref="C325:E325"/>
-    <mergeCell ref="B321:E321"/>
-    <mergeCell ref="B322:E322"/>
-    <mergeCell ref="B398:I398"/>
-    <mergeCell ref="B310:I313"/>
-    <mergeCell ref="B298:I298"/>
-    <mergeCell ref="B317:I318"/>
-    <mergeCell ref="F304:G304"/>
-    <mergeCell ref="F305:G305"/>
-    <mergeCell ref="F306:G306"/>
-    <mergeCell ref="D304:E304"/>
-    <mergeCell ref="D305:E305"/>
-    <mergeCell ref="D306:E306"/>
-    <mergeCell ref="B303:I303"/>
-    <mergeCell ref="B319:E319"/>
-    <mergeCell ref="B320:E320"/>
-    <mergeCell ref="B323:E323"/>
+    <mergeCell ref="Q9:X9"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A11:I14"/>
+    <mergeCell ref="M11:T14"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B285:I285"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B276:I277"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B270:I273"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
   </mergeCells>
   <conditionalFormatting sqref="B17">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
